--- a/Dia1_atualizado.xlsx
+++ b/Dia1_atualizado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unidades </t>
+          <t>Unidades</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Preço</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unidades</t>
         </is>
       </c>
     </row>
@@ -485,7 +480,6 @@
       <c r="E2" t="n">
         <v>1.6</v>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -507,7 +501,6 @@
       <c r="E3" t="n">
         <v>24.2</v>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -529,7 +522,6 @@
       <c r="E4" t="n">
         <v>11.5</v>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,7 +543,6 @@
       <c r="E5" t="n">
         <v>6.6</v>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -573,7 +564,6 @@
       <c r="E6" t="n">
         <v>7.89</v>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -595,7 +585,6 @@
       <c r="E7" t="n">
         <v>9.99</v>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -617,7 +606,6 @@
       <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,7 +627,6 @@
       <c r="E9" t="n">
         <v>8.5</v>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -661,7 +648,6 @@
       <c r="E10" t="n">
         <v>6.5</v>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -683,7 +669,6 @@
       <c r="E11" t="n">
         <v>7.35</v>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -705,7 +690,6 @@
       <c r="E12" t="n">
         <v>4.75</v>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -727,7 +711,6 @@
       <c r="E13" t="n">
         <v>14.75</v>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -749,7 +732,6 @@
       <c r="E14" t="n">
         <v>105</v>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -771,7 +753,6 @@
       <c r="E15" t="n">
         <v>1.6</v>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -793,7 +774,6 @@
       <c r="E16" t="n">
         <v>1.6</v>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -815,7 +795,6 @@
       <c r="E17" t="n">
         <v>1.6</v>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -837,7 +816,6 @@
       <c r="E18" t="n">
         <v>1.6</v>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -859,7 +837,6 @@
       <c r="E19" t="n">
         <v>1.6</v>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -881,7 +858,6 @@
       <c r="E20" t="n">
         <v>1.6</v>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -903,7 +879,6 @@
       <c r="E21" t="n">
         <v>1.6</v>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -925,7 +900,6 @@
       <c r="E22" t="n">
         <v>3.26</v>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -947,7 +921,6 @@
       <c r="E23" t="n">
         <v>5.62</v>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -969,7 +942,6 @@
       <c r="E24" t="n">
         <v>9.68</v>
       </c>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -991,7 +963,6 @@
       <c r="E25" t="n">
         <v>4.51</v>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1013,7 +984,6 @@
       <c r="E26" t="n">
         <v>5.26</v>
       </c>
-      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1035,7 +1005,6 @@
       <c r="E27" t="n">
         <v>7.48</v>
       </c>
-      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1057,7 +1026,6 @@
       <c r="E28" t="n">
         <v>9.84</v>
       </c>
-      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1079,7 +1047,6 @@
       <c r="E29" t="n">
         <v>3.67</v>
       </c>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1101,7 +1068,6 @@
       <c r="E30" t="n">
         <v>9.82</v>
       </c>
-      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1123,7 +1089,6 @@
       <c r="E31" t="n">
         <v>7.35</v>
       </c>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1145,7 +1110,6 @@
       <c r="E32" t="n">
         <v>1.6</v>
       </c>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1167,7 +1131,6 @@
       <c r="E33" t="n">
         <v>91.81999999999999</v>
       </c>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1189,7 +1152,6 @@
       <c r="E34" t="n">
         <v>73</v>
       </c>
-      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1211,7 +1173,6 @@
       <c r="E35" t="n">
         <v>82.64</v>
       </c>
-      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1233,7 +1194,6 @@
       <c r="E36" t="n">
         <v>97.45999999999999</v>
       </c>
-      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1255,7 +1215,6 @@
       <c r="E37" t="n">
         <v>75.36</v>
       </c>
-      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1277,7 +1236,6 @@
       <c r="E38" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1299,7 +1257,6 @@
       <c r="E39" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1321,10 +1278,11 @@
       <c r="E40" t="n">
         <v>44.5</v>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Junior</t>
@@ -1335,12 +1293,11 @@
           <t>Carro</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
       <c r="E41" t="n">
         <v>20</v>
-      </c>
-      <c r="F41" t="n">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
